--- a/natmiOut/OldD2/LR-pairs_lrc2p/Pthlh-Pth1r.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Pthlh-Pth1r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Pthlh</t>
   </si>
   <si>
@@ -92,12 +98,6 @@
   </si>
   <si>
     <t>M2</t>
-  </si>
-  <si>
-    <t>Neutro</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.541565618895808</v>
+        <v>0.5415855000000001</v>
       </c>
       <c r="H2">
-        <v>0.541565618895808</v>
+        <v>1.083171</v>
       </c>
       <c r="I2">
-        <v>0.3986547475700201</v>
+        <v>0.3409397013906864</v>
       </c>
       <c r="J2">
-        <v>0.3986547475700201</v>
+        <v>0.2663449229590454</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.992655105032458</v>
+        <v>1.005346</v>
       </c>
       <c r="N2">
-        <v>0.992655105032458</v>
+        <v>2.010692</v>
       </c>
       <c r="O2">
-        <v>0.1443106164019797</v>
+        <v>0.1338619511873397</v>
       </c>
       <c r="P2">
-        <v>0.1443106164019797</v>
+        <v>0.1022062808187575</v>
       </c>
       <c r="Q2">
-        <v>0.5375878763069865</v>
+        <v>0.5444808160829999</v>
       </c>
       <c r="R2">
-        <v>0.5375878763069865</v>
+        <v>2.177923264332</v>
       </c>
       <c r="S2">
-        <v>0.0575301123534052</v>
+        <v>0.04563885366538623</v>
       </c>
       <c r="T2">
-        <v>0.0575301123534052</v>
+        <v>0.02722212399060254</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.541565618895808</v>
+        <v>0.5415855000000001</v>
       </c>
       <c r="H3">
-        <v>0.541565618895808</v>
+        <v>1.083171</v>
       </c>
       <c r="I3">
-        <v>0.3986547475700201</v>
+        <v>0.3409397013906864</v>
       </c>
       <c r="J3">
-        <v>0.3986547475700201</v>
+        <v>0.2663449229590454</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.97990863778207</v>
+        <v>2.326507666666667</v>
       </c>
       <c r="N3">
-        <v>1.97990863778207</v>
+        <v>6.979523</v>
       </c>
       <c r="O3">
-        <v>0.2878359608381724</v>
+        <v>0.3097747996334644</v>
       </c>
       <c r="P3">
-        <v>0.2878359608381724</v>
+        <v>0.3547788958821029</v>
       </c>
       <c r="Q3">
-        <v>1.072250446777603</v>
+        <v>1.2600028179055</v>
       </c>
       <c r="R3">
-        <v>1.072250446777603</v>
+        <v>7.560016907433001</v>
       </c>
       <c r="S3">
-        <v>0.1147471723095158</v>
+        <v>0.1056145276853931</v>
       </c>
       <c r="T3">
-        <v>0.1147471723095158</v>
+        <v>0.0944935576912139</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.541565618895808</v>
+        <v>0.5415855000000001</v>
       </c>
       <c r="H4">
-        <v>0.541565618895808</v>
+        <v>1.083171</v>
       </c>
       <c r="I4">
-        <v>0.3986547475700201</v>
+        <v>0.3409397013906864</v>
       </c>
       <c r="J4">
-        <v>0.3986547475700201</v>
+        <v>0.2663449229590454</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.671913741846237</v>
+        <v>0.7715636666666666</v>
       </c>
       <c r="N4">
-        <v>0.671913741846237</v>
+        <v>2.314691</v>
       </c>
       <c r="O4">
-        <v>0.09768174843730901</v>
+        <v>0.1027338029745562</v>
       </c>
       <c r="P4">
-        <v>0.09768174843730901</v>
+        <v>0.1176589743007137</v>
       </c>
       <c r="Q4">
-        <v>0.3638853814475555</v>
+        <v>0.4178676941935</v>
       </c>
       <c r="R4">
-        <v>0.3638853814475555</v>
+        <v>2.507206165161</v>
       </c>
       <c r="S4">
-        <v>0.03894129276547362</v>
+        <v>0.0350260321088748</v>
       </c>
       <c r="T4">
-        <v>0.03894129276547362</v>
+        <v>0.03133787044556391</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.541565618895808</v>
+        <v>0.5415855000000001</v>
       </c>
       <c r="H5">
-        <v>0.541565618895808</v>
+        <v>1.083171</v>
       </c>
       <c r="I5">
-        <v>0.3986547475700201</v>
+        <v>0.3409397013906864</v>
       </c>
       <c r="J5">
-        <v>0.3986547475700201</v>
+        <v>0.2663449229590454</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.706821029170249</v>
+        <v>0.7517066666666666</v>
       </c>
       <c r="N5">
-        <v>0.706821029170249</v>
+        <v>2.25512</v>
       </c>
       <c r="O5">
-        <v>0.1027565142095401</v>
+        <v>0.1000898408314462</v>
       </c>
       <c r="P5">
-        <v>0.1027565142095401</v>
+        <v>0.1146308972234417</v>
       </c>
       <c r="Q5">
-        <v>0.3827899681111579</v>
+        <v>0.40711343092</v>
       </c>
       <c r="R5">
-        <v>0.3827899681111579</v>
+        <v>2.44268058552</v>
       </c>
       <c r="S5">
-        <v>0.04096437223337939</v>
+        <v>0.03412460044531462</v>
       </c>
       <c r="T5">
-        <v>0.04096437223337939</v>
+        <v>0.03053135748970385</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.541565618895808</v>
+        <v>0.5415855000000001</v>
       </c>
       <c r="H6">
-        <v>0.541565618895808</v>
+        <v>1.083171</v>
       </c>
       <c r="I6">
-        <v>0.3986547475700201</v>
+        <v>0.3409397013906864</v>
       </c>
       <c r="J6">
-        <v>0.3986547475700201</v>
+        <v>0.2663449229590454</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.722817449621683</v>
+        <v>0.8024643333333333</v>
       </c>
       <c r="N6">
-        <v>0.722817449621683</v>
+        <v>2.407393</v>
       </c>
       <c r="O6">
-        <v>0.1050820483088144</v>
+        <v>0.1068482307765165</v>
       </c>
       <c r="P6">
-        <v>0.1050820483088144</v>
+        <v>0.1223711463511623</v>
       </c>
       <c r="Q6">
-        <v>0.3914530794530563</v>
+        <v>0.4346030472005</v>
       </c>
       <c r="R6">
-        <v>0.3914530794530563</v>
+        <v>2.607618283203</v>
       </c>
       <c r="S6">
-        <v>0.04189145744269105</v>
+        <v>0.03642880389506868</v>
       </c>
       <c r="T6">
-        <v>0.04189145744269105</v>
+        <v>0.03259293354731039</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.541565618895808</v>
+        <v>0.5415855000000001</v>
       </c>
       <c r="H7">
-        <v>0.541565618895808</v>
+        <v>1.083171</v>
       </c>
       <c r="I7">
-        <v>0.3986547475700201</v>
+        <v>0.3409397013906864</v>
       </c>
       <c r="J7">
-        <v>0.3986547475700201</v>
+        <v>0.2663449229590454</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.80448472291261</v>
+        <v>1.852731</v>
       </c>
       <c r="N7">
-        <v>1.80448472291261</v>
+        <v>3.705462</v>
       </c>
       <c r="O7">
-        <v>0.2623331118041844</v>
+        <v>0.2466913745966772</v>
       </c>
       <c r="P7">
-        <v>0.2623331118041844</v>
+        <v>0.1883538054238217</v>
       </c>
       <c r="Q7">
-        <v>0.9772468857521982</v>
+        <v>1.0034122450005</v>
       </c>
       <c r="R7">
-        <v>0.9772468857521982</v>
+        <v>4.013648980002</v>
       </c>
       <c r="S7">
-        <v>0.104580340465555</v>
+        <v>0.08410688359064909</v>
       </c>
       <c r="T7">
-        <v>0.104580340465555</v>
+        <v>0.05016707979465083</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.8169171840731621</v>
+        <v>0.841828</v>
       </c>
       <c r="H8">
-        <v>0.8169171840731621</v>
+        <v>2.525484</v>
       </c>
       <c r="I8">
-        <v>0.60134525242998</v>
+        <v>0.5299488020678521</v>
       </c>
       <c r="J8">
-        <v>0.60134525242998</v>
+        <v>0.6210006004724109</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.992655105032458</v>
+        <v>1.005346</v>
       </c>
       <c r="N8">
-        <v>0.992655105032458</v>
+        <v>2.010692</v>
       </c>
       <c r="O8">
-        <v>0.1443106164019797</v>
+        <v>0.1338619511873397</v>
       </c>
       <c r="P8">
-        <v>0.1443106164019797</v>
+        <v>0.1022062808187575</v>
       </c>
       <c r="Q8">
-        <v>0.8109170131589645</v>
+        <v>0.8463284124879999</v>
       </c>
       <c r="R8">
-        <v>0.8109170131589645</v>
+        <v>5.077970474928</v>
       </c>
       <c r="S8">
-        <v>0.08678050404857449</v>
+        <v>0.07093998067419596</v>
       </c>
       <c r="T8">
-        <v>0.08678050404857449</v>
+        <v>0.06347016176050028</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.8169171840731621</v>
+        <v>0.841828</v>
       </c>
       <c r="H9">
-        <v>0.8169171840731621</v>
+        <v>2.525484</v>
       </c>
       <c r="I9">
-        <v>0.60134525242998</v>
+        <v>0.5299488020678521</v>
       </c>
       <c r="J9">
-        <v>0.60134525242998</v>
+        <v>0.6210006004724109</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.97990863778207</v>
+        <v>2.326507666666667</v>
       </c>
       <c r="N9">
-        <v>1.97990863778207</v>
+        <v>6.979523</v>
       </c>
       <c r="O9">
-        <v>0.2878359608381724</v>
+        <v>0.3097747996334644</v>
       </c>
       <c r="P9">
-        <v>0.2878359608381724</v>
+        <v>0.3547788958821029</v>
       </c>
       <c r="Q9">
-        <v>1.617421389099059</v>
+        <v>1.958519296014667</v>
       </c>
       <c r="R9">
-        <v>1.617421389099059</v>
+        <v>17.626673664132</v>
       </c>
       <c r="S9">
-        <v>0.1730887885286566</v>
+        <v>0.1641647839765634</v>
       </c>
       <c r="T9">
-        <v>0.1730887885286566</v>
+        <v>0.2203179073777248</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.8169171840731621</v>
+        <v>0.841828</v>
       </c>
       <c r="H10">
-        <v>0.8169171840731621</v>
+        <v>2.525484</v>
       </c>
       <c r="I10">
-        <v>0.60134525242998</v>
+        <v>0.5299488020678521</v>
       </c>
       <c r="J10">
-        <v>0.60134525242998</v>
+        <v>0.6210006004724109</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.671913741846237</v>
+        <v>0.7715636666666666</v>
       </c>
       <c r="N10">
-        <v>0.671913741846237</v>
+        <v>2.314691</v>
       </c>
       <c r="O10">
-        <v>0.09768174843730901</v>
+        <v>0.1027338029745562</v>
       </c>
       <c r="P10">
-        <v>0.09768174843730901</v>
+        <v>0.1176589743007137</v>
       </c>
       <c r="Q10">
-        <v>0.5488978819290895</v>
+        <v>0.6495238983826667</v>
       </c>
       <c r="R10">
-        <v>0.5488978819290895</v>
+        <v>5.845715085444</v>
       </c>
       <c r="S10">
-        <v>0.0587404556718354</v>
+        <v>0.0544436558182408</v>
       </c>
       <c r="T10">
-        <v>0.0587404556718354</v>
+        <v>0.07306629369171119</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.8169171840731621</v>
+        <v>0.841828</v>
       </c>
       <c r="H11">
-        <v>0.8169171840731621</v>
+        <v>2.525484</v>
       </c>
       <c r="I11">
-        <v>0.60134525242998</v>
+        <v>0.5299488020678521</v>
       </c>
       <c r="J11">
-        <v>0.60134525242998</v>
+        <v>0.6210006004724109</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.706821029170249</v>
+        <v>0.7517066666666666</v>
       </c>
       <c r="N11">
-        <v>0.706821029170249</v>
+        <v>2.25512</v>
       </c>
       <c r="O11">
-        <v>0.1027565142095401</v>
+        <v>0.1000898408314462</v>
       </c>
       <c r="P11">
-        <v>0.1027565142095401</v>
+        <v>0.1146308972234417</v>
       </c>
       <c r="Q11">
-        <v>0.5774142447934542</v>
+        <v>0.6328077197866666</v>
       </c>
       <c r="R11">
-        <v>0.5774142447934542</v>
+        <v>5.695269478079999</v>
       </c>
       <c r="S11">
-        <v>0.06179214197616072</v>
+        <v>0.05304249124778693</v>
       </c>
       <c r="T11">
-        <v>0.06179214197616072</v>
+        <v>0.07118585600844854</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
         <v>22</v>
       </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.8169171840731621</v>
+        <v>0.841828</v>
       </c>
       <c r="H12">
-        <v>0.8169171840731621</v>
+        <v>2.525484</v>
       </c>
       <c r="I12">
-        <v>0.60134525242998</v>
+        <v>0.5299488020678521</v>
       </c>
       <c r="J12">
-        <v>0.60134525242998</v>
+        <v>0.6210006004724109</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.722817449621683</v>
+        <v>0.8024643333333333</v>
       </c>
       <c r="N12">
-        <v>0.722817449621683</v>
+        <v>2.407393</v>
       </c>
       <c r="O12">
-        <v>0.1050820483088144</v>
+        <v>0.1068482307765165</v>
       </c>
       <c r="P12">
-        <v>0.1050820483088144</v>
+        <v>0.1223711463511623</v>
       </c>
       <c r="Q12">
-        <v>0.59048199554389</v>
+        <v>0.6755369448013333</v>
       </c>
       <c r="R12">
-        <v>0.59048199554389</v>
+        <v>6.079832503212</v>
       </c>
       <c r="S12">
-        <v>0.06319059086612334</v>
+        <v>0.05662409190308432</v>
       </c>
       <c r="T12">
-        <v>0.06319059086612334</v>
+        <v>0.07599255536456904</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,805 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.841828</v>
+      </c>
+      <c r="H13">
+        <v>2.525484</v>
+      </c>
+      <c r="I13">
+        <v>0.5299488020678521</v>
+      </c>
+      <c r="J13">
+        <v>0.6210006004724109</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.852731</v>
+      </c>
+      <c r="N13">
+        <v>3.705462</v>
+      </c>
+      <c r="O13">
+        <v>0.2466913745966772</v>
+      </c>
+      <c r="P13">
+        <v>0.1883538054238217</v>
+      </c>
+      <c r="Q13">
+        <v>1.559680832268</v>
+      </c>
+      <c r="R13">
+        <v>9.358084993607999</v>
+      </c>
+      <c r="S13">
+        <v>0.1307337984479808</v>
+      </c>
+      <c r="T13">
+        <v>0.1169678262694569</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="C13" t="s">
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.04795366666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.143861</v>
+      </c>
+      <c r="I14">
+        <v>0.03018786284699617</v>
+      </c>
+      <c r="J14">
+        <v>0.03537451331489785</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1.005346</v>
+      </c>
+      <c r="N14">
+        <v>2.010692</v>
+      </c>
+      <c r="O14">
+        <v>0.1338619511873397</v>
+      </c>
+      <c r="P14">
+        <v>0.1022062808187575</v>
+      </c>
+      <c r="Q14">
+        <v>0.04821002696866666</v>
+      </c>
+      <c r="R14">
+        <v>0.2892601618119999</v>
+      </c>
+      <c r="S14">
+        <v>0.004041006222874706</v>
+      </c>
+      <c r="T14">
+        <v>0.003615497441689328</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.04795366666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.143861</v>
+      </c>
+      <c r="I15">
+        <v>0.03018786284699617</v>
+      </c>
+      <c r="J15">
+        <v>0.03537451331489785</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>2.326507666666667</v>
+      </c>
+      <c r="N15">
+        <v>6.979523</v>
+      </c>
+      <c r="O15">
+        <v>0.3097747996334644</v>
+      </c>
+      <c r="P15">
+        <v>0.3547788958821029</v>
+      </c>
+      <c r="Q15">
+        <v>0.1115645731447778</v>
+      </c>
+      <c r="R15">
+        <v>1.004081158303</v>
+      </c>
+      <c r="S15">
+        <v>0.009351439164790741</v>
+      </c>
+      <c r="T15">
+        <v>0.01255013077622621</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.04795366666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.143861</v>
+      </c>
+      <c r="I16">
+        <v>0.03018786284699617</v>
+      </c>
+      <c r="J16">
+        <v>0.03537451331489785</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.7715636666666666</v>
+      </c>
+      <c r="N16">
+        <v>2.314691</v>
+      </c>
+      <c r="O16">
+        <v>0.1027338029745562</v>
+      </c>
+      <c r="P16">
+        <v>0.1176589743007137</v>
+      </c>
+      <c r="Q16">
+        <v>0.03699930688344445</v>
+      </c>
+      <c r="R16">
+        <v>0.3329937619509999</v>
+      </c>
+      <c r="S16">
+        <v>0.003101313953946229</v>
+      </c>
+      <c r="T16">
+        <v>0.004162128953017823</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.04795366666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.143861</v>
+      </c>
+      <c r="I17">
+        <v>0.03018786284699617</v>
+      </c>
+      <c r="J17">
+        <v>0.03537451331489785</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.7517066666666666</v>
+      </c>
+      <c r="N17">
+        <v>2.25512</v>
+      </c>
+      <c r="O17">
+        <v>0.1000898408314462</v>
+      </c>
+      <c r="P17">
+        <v>0.1146308972234417</v>
+      </c>
+      <c r="Q17">
+        <v>0.03604709092444444</v>
+      </c>
+      <c r="R17">
+        <v>0.3244238183199999</v>
+      </c>
+      <c r="S17">
+        <v>0.003021498387397376</v>
+      </c>
+      <c r="T17">
+        <v>0.004055012200129327</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.04795366666666667</v>
+      </c>
+      <c r="H18">
+        <v>0.143861</v>
+      </c>
+      <c r="I18">
+        <v>0.03018786284699617</v>
+      </c>
+      <c r="J18">
+        <v>0.03537451331489785</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.8024643333333333</v>
+      </c>
+      <c r="N18">
+        <v>2.407393</v>
+      </c>
+      <c r="O18">
+        <v>0.1068482307765165</v>
+      </c>
+      <c r="P18">
+        <v>0.1223711463511623</v>
+      </c>
+      <c r="Q18">
+        <v>0.03848110715255555</v>
+      </c>
+      <c r="R18">
+        <v>0.346329964373</v>
+      </c>
+      <c r="S18">
+        <v>0.003225519736125675</v>
+      </c>
+      <c r="T18">
+        <v>0.004328819745958504</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>23</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.04795366666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.143861</v>
+      </c>
+      <c r="I19">
+        <v>0.03018786284699617</v>
+      </c>
+      <c r="J19">
+        <v>0.03537451331489785</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1.852731</v>
+      </c>
+      <c r="N19">
+        <v>3.705462</v>
+      </c>
+      <c r="O19">
+        <v>0.2466913745966772</v>
+      </c>
+      <c r="P19">
+        <v>0.1883538054238217</v>
+      </c>
+      <c r="Q19">
+        <v>0.088845244797</v>
+      </c>
+      <c r="R19">
+        <v>0.533071468782</v>
+      </c>
+      <c r="S19">
+        <v>0.007447085381861445</v>
+      </c>
+      <c r="T19">
+        <v>0.006662924197876662</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.5</v>
+      </c>
+      <c r="G20">
+        <v>0.157141</v>
+      </c>
+      <c r="H20">
+        <v>0.314282</v>
+      </c>
+      <c r="I20">
+        <v>0.09892363369446532</v>
+      </c>
+      <c r="J20">
+        <v>0.07727996325364574</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1.005346</v>
+      </c>
+      <c r="N20">
+        <v>2.010692</v>
+      </c>
+      <c r="O20">
+        <v>0.1338619511873397</v>
+      </c>
+      <c r="P20">
+        <v>0.1022062808187575</v>
+      </c>
+      <c r="Q20">
+        <v>0.157981075786</v>
+      </c>
+      <c r="R20">
+        <v>0.6319243031439999</v>
+      </c>
+      <c r="S20">
+        <v>0.01324211062488279</v>
+      </c>
+      <c r="T20">
+        <v>0.007898497625965379</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.5</v>
+      </c>
+      <c r="G21">
+        <v>0.157141</v>
+      </c>
+      <c r="H21">
+        <v>0.314282</v>
+      </c>
+      <c r="I21">
+        <v>0.09892363369446532</v>
+      </c>
+      <c r="J21">
+        <v>0.07727996325364574</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>2.326507666666667</v>
+      </c>
+      <c r="N21">
+        <v>6.979523</v>
+      </c>
+      <c r="O21">
+        <v>0.3097747996334644</v>
+      </c>
+      <c r="P21">
+        <v>0.3547788958821029</v>
+      </c>
+      <c r="Q21">
+        <v>0.3655897412476667</v>
+      </c>
+      <c r="R21">
+        <v>2.193538447486</v>
+      </c>
+      <c r="S21">
+        <v>0.03064404880671722</v>
+      </c>
+      <c r="T21">
+        <v>0.02741730003693792</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.5</v>
+      </c>
+      <c r="G22">
+        <v>0.157141</v>
+      </c>
+      <c r="H22">
+        <v>0.314282</v>
+      </c>
+      <c r="I22">
+        <v>0.09892363369446532</v>
+      </c>
+      <c r="J22">
+        <v>0.07727996325364574</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.7715636666666666</v>
+      </c>
+      <c r="N22">
+        <v>2.314691</v>
+      </c>
+      <c r="O22">
+        <v>0.1027338029745562</v>
+      </c>
+      <c r="P22">
+        <v>0.1176589743007137</v>
+      </c>
+      <c r="Q22">
+        <v>0.1212442861436667</v>
+      </c>
+      <c r="R22">
+        <v>0.727465716862</v>
+      </c>
+      <c r="S22">
+        <v>0.01016280109349437</v>
+      </c>
+      <c r="T22">
+        <v>0.009092681210420806</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
         <v>27</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.8169171840731621</v>
-      </c>
-      <c r="H13">
-        <v>0.8169171840731621</v>
-      </c>
-      <c r="I13">
-        <v>0.60134525242998</v>
-      </c>
-      <c r="J13">
-        <v>0.60134525242998</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>1.80448472291261</v>
-      </c>
-      <c r="N13">
-        <v>1.80448472291261</v>
-      </c>
-      <c r="O13">
-        <v>0.2623331118041844</v>
-      </c>
-      <c r="P13">
-        <v>0.2623331118041844</v>
-      </c>
-      <c r="Q13">
-        <v>1.474114578544809</v>
-      </c>
-      <c r="R13">
-        <v>1.474114578544809</v>
-      </c>
-      <c r="S13">
-        <v>0.1577527713386295</v>
-      </c>
-      <c r="T13">
-        <v>0.1577527713386295</v>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.5</v>
+      </c>
+      <c r="G23">
+        <v>0.157141</v>
+      </c>
+      <c r="H23">
+        <v>0.314282</v>
+      </c>
+      <c r="I23">
+        <v>0.09892363369446532</v>
+      </c>
+      <c r="J23">
+        <v>0.07727996325364574</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.7517066666666666</v>
+      </c>
+      <c r="N23">
+        <v>2.25512</v>
+      </c>
+      <c r="O23">
+        <v>0.1000898408314462</v>
+      </c>
+      <c r="P23">
+        <v>0.1146308972234417</v>
+      </c>
+      <c r="Q23">
+        <v>0.1181239373066667</v>
+      </c>
+      <c r="R23">
+        <v>0.7087436238399999</v>
+      </c>
+      <c r="S23">
+        <v>0.009901250750947325</v>
+      </c>
+      <c r="T23">
+        <v>0.00885867152516002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.5</v>
+      </c>
+      <c r="G24">
+        <v>0.157141</v>
+      </c>
+      <c r="H24">
+        <v>0.314282</v>
+      </c>
+      <c r="I24">
+        <v>0.09892363369446532</v>
+      </c>
+      <c r="J24">
+        <v>0.07727996325364574</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.8024643333333333</v>
+      </c>
+      <c r="N24">
+        <v>2.407393</v>
+      </c>
+      <c r="O24">
+        <v>0.1068482307765165</v>
+      </c>
+      <c r="P24">
+        <v>0.1223711463511623</v>
+      </c>
+      <c r="Q24">
+        <v>0.1261000478043333</v>
+      </c>
+      <c r="R24">
+        <v>0.756600286826</v>
+      </c>
+      <c r="S24">
+        <v>0.01056981524223781</v>
+      </c>
+      <c r="T24">
+        <v>0.009456837693324326</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.5</v>
+      </c>
+      <c r="G25">
+        <v>0.157141</v>
+      </c>
+      <c r="H25">
+        <v>0.314282</v>
+      </c>
+      <c r="I25">
+        <v>0.09892363369446532</v>
+      </c>
+      <c r="J25">
+        <v>0.07727996325364574</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1.852731</v>
+      </c>
+      <c r="N25">
+        <v>3.705462</v>
+      </c>
+      <c r="O25">
+        <v>0.2466913745966772</v>
+      </c>
+      <c r="P25">
+        <v>0.1883538054238217</v>
+      </c>
+      <c r="Q25">
+        <v>0.291140002071</v>
+      </c>
+      <c r="R25">
+        <v>1.164560008284</v>
+      </c>
+      <c r="S25">
+        <v>0.02440360717618582</v>
+      </c>
+      <c r="T25">
+        <v>0.01455597516183728</v>
       </c>
     </row>
   </sheetData>
